--- a/Recycling/Met_rec/metrec_Avg_target_Min.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_target_Min.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -1653,7 +1653,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>13486.09352961934</v>
+        <v>13486.09352961935</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2907,7 +2907,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>240901.5365950031</v>
+        <v>240901.536595003</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4887,7 +4887,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>831477.5295182779</v>
+        <v>831477.5295182781</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5481,7 +5481,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1847958.449639018</v>
+        <v>1847958.449639017</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6009,7 +6009,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1706494.216939883</v>
+        <v>1706494.216939882</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Avg_target_Min.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_target_Min.xlsx
@@ -1196,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5452510.197548892</v>
+        <v>5452510.197548893</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1764,7 +1764,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3.345293988247243</v>
+        <v>3.345293988247244</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2420,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>329.3795775006194</v>
+        <v>329.3795775006195</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4736.044372663824</v>
+        <v>4736.044372663825</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4096,7 +4096,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4017.982475073959</v>
+        <v>4017.982475073958</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7200,7 +7200,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>116912.5152136425</v>
+        <v>116912.5152136424</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8088,7 +8088,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>769408.199773102</v>
+        <v>769408.1997731018</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8424,7 +8424,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>382653.6945632014</v>
+        <v>382653.6945632013</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9400,7 +9400,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4065902.964664728</v>
+        <v>4065902.964664729</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9560,7 +9560,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1968621.588509787</v>
+        <v>1968621.588509788</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9808,7 +9808,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6003502.63207628</v>
+        <v>6003502.632076281</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10128,7 +10128,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5384486.985358472</v>
+        <v>5384486.985358471</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10536,7 +10536,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6542520.925728455</v>
+        <v>6542520.925728453</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10668,7 +10668,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3060572.741705751</v>
+        <v>3060572.74170575</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10828,7 +10828,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>9810779.095922641</v>
+        <v>9810779.095922643</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12372,7 +12372,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5485701.786398268</v>
+        <v>5485701.786398269</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13028,7 +13028,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2165207.026544553</v>
+        <v>2165207.026544554</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13436,7 +13436,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1678857.143203692</v>
+        <v>1678857.143203693</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13480,7 +13480,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>8176874.471001186</v>
+        <v>8176874.471001185</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13888,7 +13888,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>8111643.90902038</v>
+        <v>8111643.909020378</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14340,7 +14340,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1068952.762741735</v>
+        <v>1068952.762741736</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -14704,7 +14704,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>9870723.198448034</v>
+        <v>9870723.198448036</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -16044,7 +16044,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>7020899.696751145</v>
+        <v>7020899.696751146</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16248,7 +16248,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>7228191.658103611</v>
+        <v>7228191.658103612</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16860,7 +16860,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>7319859.881081668</v>
+        <v>7319859.881081667</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16948,7 +16948,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>19707682.83195547</v>
+        <v>19707682.83195548</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -17064,7 +17064,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>7094309.442321763</v>
+        <v>7094309.442321762</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17356,7 +17356,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>20194107.02625017</v>
+        <v>20194107.02625016</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19192,7 +19192,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>19929846.99074813</v>
+        <v>19929846.99074812</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19556,7 +19556,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3460308.045572925</v>
+        <v>3460308.045572926</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19644,7 +19644,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2226693.421928547</v>
+        <v>2226693.421928546</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -19760,7 +19760,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3725624.237182535</v>
+        <v>3725624.237182534</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19920,7 +19920,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4951318.613235457</v>
+        <v>4951318.613235456</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20168,7 +20168,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4382400.499350765</v>
+        <v>4382400.499350764</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20416,7 +20416,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>23498611.13734978</v>
+        <v>23498611.13734979</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20620,7 +20620,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>24354846.25913017</v>
+        <v>24354846.25913018</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20780,7 +20780,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5181985.76630486</v>
+        <v>5181985.766304859</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20940,7 +20940,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6455298.388014564</v>
+        <v>6455298.388014565</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -21028,7 +21028,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>25989286.23235821</v>
+        <v>25989286.23235822</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -21072,7 +21072,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3852895.673388721</v>
+        <v>3852895.67338872</v>
       </c>
     </row>
     <row r="17" spans="1:4">
